--- a/misc/mac_mono_subsets.xlsx
+++ b/misc/mac_mono_subsets.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B72D893-76EA-46B7-B32D-5DC599C648F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D93C86-1C51-4198-8165-30FE4225EBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12315" yWindow="1980" windowWidth="21930" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="0" windowWidth="16380" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$525</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1647,24 +1650,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G525"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A366" workbookViewId="0">
-      <selection activeCell="G387" sqref="G387"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="B261" sqref="B261:B330"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" customWidth="1"/>
+    <col min="3" max="3" width="18.73046875" customWidth="1"/>
+    <col min="4" max="4" width="15.3984375" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.86328125" customWidth="1"/>
+    <col min="7" max="7" width="24.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1685,7 +1689,7 @@
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1702,7 +1706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1719,7 +1723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1736,7 +1740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1753,7 +1757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1770,7 +1774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1787,7 +1791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1804,7 +1808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1824,7 +1828,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1841,7 +1845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1858,7 +1862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1875,7 +1879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1892,7 +1896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1909,7 +1913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1926,7 +1930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1943,7 +1947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1960,7 +1964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1977,7 +1981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1994,7 +1998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2011,7 +2015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2028,7 +2032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2045,7 +2049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>0</v>
       </c>
@@ -2062,7 +2066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>0</v>
       </c>
@@ -2079,7 +2083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2096,7 +2100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>0</v>
       </c>
@@ -2113,7 +2117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>0</v>
       </c>
@@ -2133,7 +2137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>0</v>
       </c>
@@ -2150,7 +2154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>0</v>
       </c>
@@ -2167,7 +2171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>0</v>
       </c>
@@ -2184,7 +2188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2201,7 +2205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>0</v>
       </c>
@@ -2218,7 +2222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>0</v>
       </c>
@@ -2235,7 +2239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>0</v>
       </c>
@@ -2252,7 +2256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>0</v>
       </c>
@@ -2269,7 +2273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>0</v>
       </c>
@@ -2289,7 +2293,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>0</v>
       </c>
@@ -2309,7 +2313,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>0</v>
       </c>
@@ -2329,7 +2333,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>0</v>
       </c>
@@ -2349,7 +2353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>0</v>
       </c>
@@ -2369,7 +2373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>0</v>
       </c>
@@ -2389,7 +2393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>0</v>
       </c>
@@ -2409,7 +2413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>0</v>
       </c>
@@ -2429,7 +2433,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>0</v>
       </c>
@@ -2449,7 +2453,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>0</v>
       </c>
@@ -2469,7 +2473,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>0</v>
       </c>
@@ -2489,7 +2493,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>0</v>
       </c>
@@ -2509,7 +2513,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>0</v>
       </c>
@@ -2529,7 +2533,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>0</v>
       </c>
@@ -2549,7 +2553,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>0</v>
       </c>
@@ -2567,7 +2571,7 @@
       </c>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>0</v>
       </c>
@@ -2585,7 +2589,7 @@
       </c>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>0</v>
       </c>
@@ -2603,304 +2607,307 @@
       </c>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>0</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C53" t="s">
+        <v>416</v>
+      </c>
+      <c r="D53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C54" t="s">
+        <v>416</v>
+      </c>
+      <c r="D54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C55" t="s">
+        <v>416</v>
+      </c>
+      <c r="D55" t="s">
+        <v>62</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C56" t="s">
+        <v>416</v>
+      </c>
+      <c r="D56" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C57" t="s">
+        <v>416</v>
+      </c>
+      <c r="D57" t="s">
+        <v>62</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C53" t="s">
-        <v>413</v>
-      </c>
-      <c r="D53" t="s">
-        <v>62</v>
-      </c>
-      <c r="E53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>0</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" t="s">
-        <v>413</v>
-      </c>
-      <c r="D54" t="s">
-        <v>62</v>
-      </c>
-      <c r="E54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>0</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" t="s">
-        <v>413</v>
-      </c>
-      <c r="D55" t="s">
-        <v>62</v>
-      </c>
-      <c r="E55" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>0</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" t="s">
-        <v>413</v>
-      </c>
-      <c r="D56" t="s">
-        <v>62</v>
-      </c>
-      <c r="E56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>0</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" t="s">
-        <v>413</v>
-      </c>
-      <c r="D57" t="s">
-        <v>62</v>
-      </c>
-      <c r="E57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>0</v>
-      </c>
-      <c r="B58" s="4" t="s">
+      <c r="C58" t="s">
+        <v>410</v>
+      </c>
+      <c r="D58" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C59" t="s">
+        <v>410</v>
+      </c>
+      <c r="D59" t="s">
+        <v>62</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C60" t="s">
+        <v>410</v>
+      </c>
+      <c r="D60" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C61" t="s">
+        <v>410</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C62" t="s">
+        <v>410</v>
+      </c>
+      <c r="D62" t="s">
+        <v>62</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C63" t="s">
+        <v>410</v>
+      </c>
+      <c r="D63" t="s">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C58" t="s">
-        <v>413</v>
-      </c>
-      <c r="D58" t="s">
-        <v>62</v>
-      </c>
-      <c r="E58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>0</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" t="s">
-        <v>413</v>
-      </c>
-      <c r="D59" t="s">
-        <v>62</v>
-      </c>
-      <c r="E59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>0</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" t="s">
-        <v>413</v>
-      </c>
-      <c r="D60" t="s">
-        <v>62</v>
-      </c>
-      <c r="E60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>0</v>
-      </c>
-      <c r="B61" s="4" t="s">
+      <c r="C64" t="s">
+        <v>410</v>
+      </c>
+      <c r="D64" t="s">
+        <v>62</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C65" t="s">
+        <v>410</v>
+      </c>
+      <c r="D65" t="s">
+        <v>62</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C66" t="s">
+        <v>410</v>
+      </c>
+      <c r="D66" t="s">
+        <v>62</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C67" t="s">
+        <v>410</v>
+      </c>
+      <c r="D67" t="s">
+        <v>62</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C68" t="s">
+        <v>410</v>
+      </c>
+      <c r="D68" t="s">
+        <v>62</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C61" t="s">
-        <v>413</v>
-      </c>
-      <c r="D61" t="s">
-        <v>62</v>
-      </c>
-      <c r="E61" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>0</v>
-      </c>
-      <c r="B62" s="4" t="s">
+      <c r="C69" t="s">
+        <v>410</v>
+      </c>
+      <c r="D69" t="s">
+        <v>62</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C62" t="s">
-        <v>413</v>
-      </c>
-      <c r="D62" t="s">
-        <v>62</v>
-      </c>
-      <c r="E62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>0</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" t="s">
-        <v>413</v>
-      </c>
-      <c r="D63" t="s">
-        <v>62</v>
-      </c>
-      <c r="E63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>0</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64" t="s">
-        <v>413</v>
-      </c>
-      <c r="D64" t="s">
-        <v>62</v>
-      </c>
-      <c r="E64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>0</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65" t="s">
-        <v>413</v>
-      </c>
-      <c r="D65" t="s">
-        <v>62</v>
-      </c>
-      <c r="E65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>0</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66" t="s">
-        <v>413</v>
-      </c>
-      <c r="D66" t="s">
-        <v>62</v>
-      </c>
-      <c r="E66" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>0</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" t="s">
-        <v>413</v>
-      </c>
-      <c r="D67" t="s">
-        <v>62</v>
-      </c>
-      <c r="E67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>0</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" t="s">
-        <v>413</v>
-      </c>
-      <c r="D68" t="s">
-        <v>62</v>
-      </c>
-      <c r="E68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>0</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" t="s">
-        <v>413</v>
-      </c>
-      <c r="D69" t="s">
-        <v>62</v>
-      </c>
-      <c r="E69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>0</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="C70" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D70" t="s">
         <v>62</v>
@@ -2909,7 +2916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>0</v>
       </c>
@@ -2926,7 +2933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>1</v>
       </c>
@@ -2943,7 +2950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>1</v>
       </c>
@@ -2960,7 +2967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>0</v>
       </c>
@@ -2977,7 +2984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>1</v>
       </c>
@@ -2994,7 +3001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>1</v>
       </c>
@@ -3011,7 +3018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>0</v>
       </c>
@@ -3028,7 +3035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>1</v>
       </c>
@@ -3045,7 +3052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>0</v>
       </c>
@@ -3062,7 +3069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>1</v>
       </c>
@@ -3079,7 +3086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3096,7 +3103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3113,7 +3120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3130,7 +3137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>1</v>
       </c>
@@ -3147,7 +3154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3164,7 +3171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3181,7 +3188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>1</v>
       </c>
@@ -3198,7 +3205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>1</v>
       </c>
@@ -3215,7 +3222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>0</v>
       </c>
@@ -3232,7 +3239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>1</v>
       </c>
@@ -3249,7 +3256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3266,7 +3273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3283,7 +3290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>0</v>
       </c>
@@ -3300,7 +3307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>0</v>
       </c>
@@ -3317,7 +3324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>0</v>
       </c>
@@ -3334,7 +3341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>0</v>
       </c>
@@ -3351,15 +3358,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>414</v>
+        <v>356</v>
+      </c>
+      <c r="C97" t="s">
+        <v>410</v>
       </c>
       <c r="D97" t="s">
         <v>62</v>
@@ -3368,15 +3375,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>414</v>
+        <v>357</v>
+      </c>
+      <c r="C98" t="s">
+        <v>410</v>
       </c>
       <c r="D98" t="s">
         <v>62</v>
@@ -3385,15 +3392,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>414</v>
+        <v>234</v>
+      </c>
+      <c r="C99" t="s">
+        <v>410</v>
       </c>
       <c r="D99" t="s">
         <v>62</v>
@@ -3402,32 +3409,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100">
-        <v>1</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="D100" t="s">
-        <v>62</v>
-      </c>
-      <c r="E100" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C100" t="s">
+        <v>410</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>414</v>
+        <v>358</v>
+      </c>
+      <c r="C101" t="s">
+        <v>410</v>
       </c>
       <c r="D101" t="s">
         <v>62</v>
@@ -3436,32 +3446,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102">
-        <v>1</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="D102" t="s">
-        <v>62</v>
-      </c>
-      <c r="E102" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C102" t="s">
+        <v>410</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>1</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>414</v>
+        <v>359</v>
+      </c>
+      <c r="C103" t="s">
+        <v>410</v>
       </c>
       <c r="D103" t="s">
         <v>62</v>
@@ -3470,15 +3483,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>414</v>
+        <v>360</v>
+      </c>
+      <c r="C104" t="s">
+        <v>410</v>
       </c>
       <c r="D104" t="s">
         <v>62</v>
@@ -3487,15 +3500,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>414</v>
+        <v>361</v>
+      </c>
+      <c r="C105" t="s">
+        <v>410</v>
       </c>
       <c r="D105" t="s">
         <v>62</v>
@@ -3504,15 +3517,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>1</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>414</v>
+        <v>364</v>
+      </c>
+      <c r="C106" t="s">
+        <v>410</v>
       </c>
       <c r="D106" t="s">
         <v>62</v>
@@ -3521,15 +3534,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>414</v>
+        <v>362</v>
+      </c>
+      <c r="C107" t="s">
+        <v>410</v>
       </c>
       <c r="D107" t="s">
         <v>62</v>
@@ -3538,15 +3551,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>414</v>
+        <v>363</v>
+      </c>
+      <c r="C108" t="s">
+        <v>410</v>
       </c>
       <c r="D108" t="s">
         <v>62</v>
@@ -3555,7 +3568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>1</v>
       </c>
@@ -3572,7 +3585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>1</v>
       </c>
@@ -3589,7 +3602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>1</v>
       </c>
@@ -3606,7 +3619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>0</v>
       </c>
@@ -3623,7 +3636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>1</v>
       </c>
@@ -3640,7 +3653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>1</v>
       </c>
@@ -3657,7 +3670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>1</v>
       </c>
@@ -3674,7 +3687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>1</v>
       </c>
@@ -3691,7 +3704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>0</v>
       </c>
@@ -3708,7 +3721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>0</v>
       </c>
@@ -3725,7 +3738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>0</v>
       </c>
@@ -3742,7 +3755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>0</v>
       </c>
@@ -3759,7 +3772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>1</v>
       </c>
@@ -3776,7 +3789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>1</v>
       </c>
@@ -3793,7 +3806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>1</v>
       </c>
@@ -3810,7 +3823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>0</v>
       </c>
@@ -3827,7 +3840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>1</v>
       </c>
@@ -3844,7 +3857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>0</v>
       </c>
@@ -3861,7 +3874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>0</v>
       </c>
@@ -3878,7 +3891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>0</v>
       </c>
@@ -3895,7 +3908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>1</v>
       </c>
@@ -3912,7 +3925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>0</v>
       </c>
@@ -3929,7 +3942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>0</v>
       </c>
@@ -3946,7 +3959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>0</v>
       </c>
@@ -3963,7 +3976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>0</v>
       </c>
@@ -3980,7 +3993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>0</v>
       </c>
@@ -3997,7 +4010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>0</v>
       </c>
@@ -4014,7 +4027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>0</v>
       </c>
@@ -4031,7 +4044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>0</v>
       </c>
@@ -4048,7 +4061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>0</v>
       </c>
@@ -4065,7 +4078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>0</v>
       </c>
@@ -4082,7 +4095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>0</v>
       </c>
@@ -4099,7 +4112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>0</v>
       </c>
@@ -4116,7 +4129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>0</v>
       </c>
@@ -4133,7 +4146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>0</v>
       </c>
@@ -4150,7 +4163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>1</v>
       </c>
@@ -4167,7 +4180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>0</v>
       </c>
@@ -4184,7 +4197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>1</v>
       </c>
@@ -4201,7 +4214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>0</v>
       </c>
@@ -4218,7 +4231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>0</v>
       </c>
@@ -4238,7 +4251,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>0</v>
       </c>
@@ -4258,7 +4271,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>0</v>
       </c>
@@ -4276,7 +4289,7 @@
       </c>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>0</v>
       </c>
@@ -4296,7 +4309,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>0</v>
       </c>
@@ -4316,7 +4329,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>0</v>
       </c>
@@ -4336,7 +4349,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>0</v>
       </c>
@@ -4356,7 +4369,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>0</v>
       </c>
@@ -4374,7 +4387,7 @@
       </c>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>0</v>
       </c>
@@ -4392,7 +4405,7 @@
       </c>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>0</v>
       </c>
@@ -4410,7 +4423,7 @@
       </c>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>0</v>
       </c>
@@ -4428,421 +4441,398 @@
       </c>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>1</v>
       </c>
-      <c r="B159" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F159" s="2"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B159" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C159" t="s">
+        <v>410</v>
+      </c>
+      <c r="D159" t="s">
+        <v>62</v>
+      </c>
+      <c r="E159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160">
-        <v>1</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F160" s="2"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C160" t="s">
+        <v>410</v>
+      </c>
+      <c r="D160" t="s">
+        <v>62</v>
+      </c>
+      <c r="E160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161">
-        <v>1</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F161" s="2"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C161" t="s">
+        <v>410</v>
+      </c>
+      <c r="D161" t="s">
+        <v>62</v>
+      </c>
+      <c r="E161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162">
-        <v>1</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F162" s="2"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C162" t="s">
+        <v>410</v>
+      </c>
+      <c r="D162" t="s">
+        <v>62</v>
+      </c>
+      <c r="E162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163">
-        <v>1</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F163" s="2"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C163" t="s">
+        <v>410</v>
+      </c>
+      <c r="D163" t="s">
+        <v>62</v>
+      </c>
+      <c r="E163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164">
-        <v>1</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F164" s="2"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C164" t="s">
+        <v>413</v>
+      </c>
+      <c r="D164" t="s">
+        <v>62</v>
+      </c>
+      <c r="E164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165">
-        <v>1</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F165" s="2"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C165" t="s">
+        <v>413</v>
+      </c>
+      <c r="D165" t="s">
+        <v>62</v>
+      </c>
+      <c r="E165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>0</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B166" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F166" s="2"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C166" t="s">
+        <v>413</v>
+      </c>
+      <c r="D166" t="s">
+        <v>62</v>
+      </c>
+      <c r="E166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>0</v>
       </c>
-      <c r="B167" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F167" s="2"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B167" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C167" t="s">
+        <v>413</v>
+      </c>
+      <c r="D167" t="s">
+        <v>62</v>
+      </c>
+      <c r="E167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>0</v>
       </c>
-      <c r="B168" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F168" s="2"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B168" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C168" t="s">
+        <v>413</v>
+      </c>
+      <c r="D168" t="s">
+        <v>62</v>
+      </c>
+      <c r="E168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>0</v>
       </c>
-      <c r="B169" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F169" s="2"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B169" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C169" t="s">
+        <v>413</v>
+      </c>
+      <c r="D169" t="s">
+        <v>62</v>
+      </c>
+      <c r="E169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>0</v>
       </c>
-      <c r="B170" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F170" s="2"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B170" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C170" t="s">
+        <v>413</v>
+      </c>
+      <c r="D170" t="s">
+        <v>62</v>
+      </c>
+      <c r="E170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A171">
-        <v>1</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F171" s="2"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C171" t="s">
+        <v>413</v>
+      </c>
+      <c r="D171" t="s">
+        <v>62</v>
+      </c>
+      <c r="E171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172">
-        <v>1</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F172" s="2"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C172" t="s">
+        <v>413</v>
+      </c>
+      <c r="D172" t="s">
+        <v>62</v>
+      </c>
+      <c r="E172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173">
-        <v>1</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F173" s="2"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C173" t="s">
+        <v>413</v>
+      </c>
+      <c r="D173" t="s">
+        <v>62</v>
+      </c>
+      <c r="E173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>0</v>
       </c>
-      <c r="B174" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F174" s="2"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B174" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C174" t="s">
+        <v>413</v>
+      </c>
+      <c r="D174" t="s">
+        <v>62</v>
+      </c>
+      <c r="E174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A175">
-        <v>1</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F175" s="2"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C175" t="s">
+        <v>413</v>
+      </c>
+      <c r="D175" t="s">
+        <v>62</v>
+      </c>
+      <c r="E175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>0</v>
       </c>
-      <c r="B176" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F176" s="2"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B176" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C176" t="s">
+        <v>413</v>
+      </c>
+      <c r="D176" t="s">
+        <v>62</v>
+      </c>
+      <c r="E176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>0</v>
       </c>
-      <c r="B177" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F177" s="2"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B177" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C177" t="s">
+        <v>413</v>
+      </c>
+      <c r="D177" t="s">
+        <v>62</v>
+      </c>
+      <c r="E177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>0</v>
       </c>
-      <c r="B178" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F178" s="2"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B178" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C178" t="s">
+        <v>413</v>
+      </c>
+      <c r="D178" t="s">
+        <v>62</v>
+      </c>
+      <c r="E178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>0</v>
       </c>
-      <c r="B179" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F179" s="2"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B179" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C179" t="s">
+        <v>413</v>
+      </c>
+      <c r="D179" t="s">
+        <v>62</v>
+      </c>
+      <c r="E179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>0</v>
       </c>
-      <c r="B180" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F180" s="2"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B180" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C180" t="s">
+        <v>413</v>
+      </c>
+      <c r="D180" t="s">
+        <v>62</v>
+      </c>
+      <c r="E180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A181">
-        <v>1</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F181" s="2"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C181" t="s">
+        <v>413</v>
+      </c>
+      <c r="D181" t="s">
+        <v>62</v>
+      </c>
+      <c r="E181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>0</v>
       </c>
@@ -4859,7 +4849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>1</v>
       </c>
@@ -4876,7 +4866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>0</v>
       </c>
@@ -4893,7 +4883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>0</v>
       </c>
@@ -4910,7 +4900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>0</v>
       </c>
@@ -4927,7 +4917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>1</v>
       </c>
@@ -4944,7 +4934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>1</v>
       </c>
@@ -4961,7 +4951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>0</v>
       </c>
@@ -4978,7 +4968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>0</v>
       </c>
@@ -4995,7 +4985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>0</v>
       </c>
@@ -5012,7 +5002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>1</v>
       </c>
@@ -5029,7 +5019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>0</v>
       </c>
@@ -5046,7 +5036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>0</v>
       </c>
@@ -5063,7 +5053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>0</v>
       </c>
@@ -5080,7 +5070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>1</v>
       </c>
@@ -5097,7 +5087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>0</v>
       </c>
@@ -5114,7 +5104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>1</v>
       </c>
@@ -5131,7 +5121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>0</v>
       </c>
@@ -5148,7 +5138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>0</v>
       </c>
@@ -5165,7 +5155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>0</v>
       </c>
@@ -5182,7 +5172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>0</v>
       </c>
@@ -5199,7 +5189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>0</v>
       </c>
@@ -5216,7 +5206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>0</v>
       </c>
@@ -5233,7 +5223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>0</v>
       </c>
@@ -5250,7 +5240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>0</v>
       </c>
@@ -5267,7 +5257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>1</v>
       </c>
@@ -5284,7 +5274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>0</v>
       </c>
@@ -5301,7 +5291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>0</v>
       </c>
@@ -5318,7 +5308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>0</v>
       </c>
@@ -5335,7 +5325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>1</v>
       </c>
@@ -5352,7 +5342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>0</v>
       </c>
@@ -5369,7 +5359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>0</v>
       </c>
@@ -5386,7 +5376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>0</v>
       </c>
@@ -5403,7 +5393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>1</v>
       </c>
@@ -5420,7 +5410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>1</v>
       </c>
@@ -5437,7 +5427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>0</v>
       </c>
@@ -5454,7 +5444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>0</v>
       </c>
@@ -5471,7 +5461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>0</v>
       </c>
@@ -5491,7 +5481,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>0</v>
       </c>
@@ -5511,7 +5501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>0</v>
       </c>
@@ -5531,7 +5521,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>0</v>
       </c>
@@ -5551,7 +5541,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>0</v>
       </c>
@@ -5571,7 +5561,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>0</v>
       </c>
@@ -5589,7 +5579,7 @@
       </c>
       <c r="F224" s="3"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>0</v>
       </c>
@@ -5607,7 +5597,7 @@
       </c>
       <c r="F225" s="3"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>0</v>
       </c>
@@ -5625,7 +5615,7 @@
       </c>
       <c r="F226" s="3"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>0</v>
       </c>
@@ -5643,15 +5633,15 @@
       </c>
       <c r="F227" s="3"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C228" t="s">
-        <v>416</v>
+        <v>106</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="D228" t="s">
         <v>62</v>
@@ -5660,15 +5650,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C229" t="s">
-        <v>416</v>
+        <v>107</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="D229" t="s">
         <v>62</v>
@@ -5677,15 +5667,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C230" t="s">
-        <v>416</v>
+        <v>101</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="D230" t="s">
         <v>62</v>
@@ -5694,15 +5684,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C231" t="s">
-        <v>416</v>
+        <v>102</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="D231" t="s">
         <v>62</v>
@@ -5711,15 +5701,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C232" t="s">
-        <v>416</v>
+        <v>103</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="D232" t="s">
         <v>62</v>
@@ -5728,7 +5718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>0</v>
       </c>
@@ -5745,7 +5735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>1</v>
       </c>
@@ -5762,7 +5752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>0</v>
       </c>
@@ -5779,7 +5769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>0</v>
       </c>
@@ -5796,7 +5786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>0</v>
       </c>
@@ -5813,7 +5803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>0</v>
       </c>
@@ -5830,7 +5820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>0</v>
       </c>
@@ -5847,7 +5837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>0</v>
       </c>
@@ -5864,7 +5854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>0</v>
       </c>
@@ -5881,7 +5871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>0</v>
       </c>
@@ -5898,7 +5888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>0</v>
       </c>
@@ -5915,7 +5905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>0</v>
       </c>
@@ -5932,7 +5922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>0</v>
       </c>
@@ -5949,7 +5939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>0</v>
       </c>
@@ -5966,7 +5956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>0</v>
       </c>
@@ -5983,7 +5973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>0</v>
       </c>
@@ -6000,7 +5990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>0</v>
       </c>
@@ -6017,7 +6007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>0</v>
       </c>
@@ -6034,7 +6024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>0</v>
       </c>
@@ -6051,7 +6041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>0</v>
       </c>
@@ -6068,7 +6058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>0</v>
       </c>
@@ -6085,434 +6075,432 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B254" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D254" t="s">
+        <v>62</v>
+      </c>
+      <c r="E254" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A255">
+        <v>1</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D255" t="s">
+        <v>62</v>
+      </c>
+      <c r="E255" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A256">
+        <v>1</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D256" t="s">
+        <v>62</v>
+      </c>
+      <c r="E256" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A257">
+        <v>1</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D257" t="s">
+        <v>62</v>
+      </c>
+      <c r="E257" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A258">
+        <v>1</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D258" t="s">
+        <v>62</v>
+      </c>
+      <c r="E258" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A259">
+        <v>0</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D259" t="s">
+        <v>62</v>
+      </c>
+      <c r="E259" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A260">
+        <v>0</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D260" t="s">
+        <v>62</v>
+      </c>
+      <c r="E260" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A261">
+        <v>1</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F261" s="2"/>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A262">
+        <v>1</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F262" s="2"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A263">
+        <v>1</v>
+      </c>
+      <c r="B263" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C254" t="s">
-        <v>417</v>
-      </c>
-      <c r="D254" t="s">
-        <v>62</v>
-      </c>
-      <c r="E254" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>1</v>
-      </c>
-      <c r="B255" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C255" t="s">
-        <v>417</v>
-      </c>
-      <c r="D255" t="s">
-        <v>62</v>
-      </c>
-      <c r="E255" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>0</v>
-      </c>
-      <c r="B256" s="4" t="s">
+      <c r="C263" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F263" s="2"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A264">
+        <v>1</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F264" s="2"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A265">
+        <v>1</v>
+      </c>
+      <c r="B265" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C256" t="s">
-        <v>417</v>
-      </c>
-      <c r="D256" t="s">
-        <v>62</v>
-      </c>
-      <c r="E256" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>0</v>
-      </c>
-      <c r="B257" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C257" t="s">
-        <v>417</v>
-      </c>
-      <c r="D257" t="s">
-        <v>62</v>
-      </c>
-      <c r="E257" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>0</v>
-      </c>
-      <c r="B258" s="4" t="s">
+      <c r="C265" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F265" s="2"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A266">
+        <v>1</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F266" s="2"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A267">
+        <v>1</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F267" s="2"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A268">
+        <v>0</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F268" s="2"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A269">
+        <v>0</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F269" s="2"/>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A270">
+        <v>0</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F270" s="2"/>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A271">
+        <v>0</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F271" s="2"/>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A272">
+        <v>0</v>
+      </c>
+      <c r="B272" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C258" t="s">
-        <v>417</v>
-      </c>
-      <c r="D258" t="s">
-        <v>62</v>
-      </c>
-      <c r="E258" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>0</v>
-      </c>
-      <c r="B259" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C259" t="s">
-        <v>417</v>
-      </c>
-      <c r="D259" t="s">
-        <v>62</v>
-      </c>
-      <c r="E259" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260">
-        <v>0</v>
-      </c>
-      <c r="B260" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C260" t="s">
-        <v>417</v>
-      </c>
-      <c r="D260" t="s">
-        <v>62</v>
-      </c>
-      <c r="E260" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261">
-        <v>0</v>
-      </c>
-      <c r="B261" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C261" t="s">
-        <v>417</v>
-      </c>
-      <c r="D261" t="s">
-        <v>62</v>
-      </c>
-      <c r="E261" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262">
-        <v>0</v>
-      </c>
-      <c r="B262" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C262" t="s">
-        <v>417</v>
-      </c>
-      <c r="D262" t="s">
-        <v>62</v>
-      </c>
-      <c r="E262" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263">
-        <v>0</v>
-      </c>
-      <c r="B263" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C263" t="s">
-        <v>417</v>
-      </c>
-      <c r="D263" t="s">
-        <v>62</v>
-      </c>
-      <c r="E263" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264">
-        <v>0</v>
-      </c>
-      <c r="B264" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C264" t="s">
-        <v>417</v>
-      </c>
-      <c r="D264" t="s">
-        <v>62</v>
-      </c>
-      <c r="E264" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265">
-        <v>0</v>
-      </c>
-      <c r="B265" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C265" t="s">
-        <v>417</v>
-      </c>
-      <c r="D265" t="s">
-        <v>62</v>
-      </c>
-      <c r="E265" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266">
-        <v>0</v>
-      </c>
-      <c r="B266" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C266" t="s">
-        <v>417</v>
-      </c>
-      <c r="D266" t="s">
-        <v>62</v>
-      </c>
-      <c r="E266" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267">
-        <v>0</v>
-      </c>
-      <c r="B267" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C267" t="s">
-        <v>417</v>
-      </c>
-      <c r="D267" t="s">
-        <v>62</v>
-      </c>
-      <c r="E267" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268">
-        <v>0</v>
-      </c>
-      <c r="B268" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C268" t="s">
-        <v>417</v>
-      </c>
-      <c r="D268" t="s">
-        <v>62</v>
-      </c>
-      <c r="E268" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269">
-        <v>0</v>
-      </c>
-      <c r="B269" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C269" t="s">
-        <v>417</v>
-      </c>
-      <c r="D269" t="s">
-        <v>62</v>
-      </c>
-      <c r="E269" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270">
-        <v>0</v>
-      </c>
-      <c r="B270" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C270" t="s">
-        <v>417</v>
-      </c>
-      <c r="D270" t="s">
-        <v>62</v>
-      </c>
-      <c r="E270" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271">
-        <v>0</v>
-      </c>
-      <c r="B271" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C271" t="s">
-        <v>417</v>
-      </c>
-      <c r="D271" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E271" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F271" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272">
-        <v>0</v>
-      </c>
-      <c r="B272" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C272" t="s">
-        <v>417</v>
-      </c>
-      <c r="D272" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E272" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F272" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C272" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F272" s="2"/>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A273">
-        <v>0</v>
-      </c>
-      <c r="B273" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C273" t="s">
-        <v>417</v>
-      </c>
-      <c r="D273" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E273" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F273" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F273" s="2"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A274">
-        <v>0</v>
-      </c>
-      <c r="B274" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C274" t="s">
-        <v>417</v>
-      </c>
-      <c r="D274" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E274" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F274" s="3"/>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F274" s="2"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A275">
-        <v>0</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C275" t="s">
-        <v>417</v>
-      </c>
-      <c r="D275" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E275" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F275" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F275" s="2"/>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>0</v>
       </c>
-      <c r="B276" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C276" t="s">
-        <v>417</v>
-      </c>
-      <c r="D276" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E276" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F276" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B276" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F276" s="2"/>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A277">
-        <v>0</v>
-      </c>
-      <c r="B277" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C277" t="s">
-        <v>417</v>
-      </c>
-      <c r="D277" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E277" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F277" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F277" s="2"/>
+    </row>
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>0</v>
       </c>
@@ -6529,7 +6517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>0</v>
       </c>
@@ -6546,7 +6534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>1</v>
       </c>
@@ -6563,7 +6551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>0</v>
       </c>
@@ -6580,7 +6568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>0</v>
       </c>
@@ -6597,7 +6585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>0</v>
       </c>
@@ -6614,7 +6602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>1</v>
       </c>
@@ -6631,7 +6619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>1</v>
       </c>
@@ -6648,7 +6636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>0</v>
       </c>
@@ -6665,7 +6653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>1</v>
       </c>
@@ -6682,7 +6670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>1</v>
       </c>
@@ -6699,7 +6687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>0</v>
       </c>
@@ -6716,7 +6704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>1</v>
       </c>
@@ -6733,7 +6721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>0</v>
       </c>
@@ -6750,92 +6738,97 @@
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A292">
-        <v>1</v>
-      </c>
-      <c r="B292" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C292" t="s">
-        <v>418</v>
-      </c>
-      <c r="D292" t="s">
-        <v>62</v>
-      </c>
-      <c r="E292" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F292" s="2"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A293">
-        <v>1</v>
-      </c>
-      <c r="B293" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C293" t="s">
-        <v>418</v>
-      </c>
-      <c r="D293" t="s">
-        <v>62</v>
-      </c>
-      <c r="E293" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F293" s="2"/>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A294">
-        <v>1</v>
-      </c>
-      <c r="B294" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C294" t="s">
-        <v>418</v>
-      </c>
-      <c r="D294" t="s">
-        <v>62</v>
-      </c>
-      <c r="E294" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F294" s="2"/>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A295">
-        <v>1</v>
-      </c>
-      <c r="B295" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C295" t="s">
-        <v>418</v>
-      </c>
-      <c r="D295" t="s">
-        <v>62</v>
-      </c>
-      <c r="E295" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F295" s="2"/>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A296">
-        <v>1</v>
-      </c>
-      <c r="B296" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C296" t="s">
-        <v>418</v>
-      </c>
-      <c r="D296" t="s">
-        <v>62</v>
-      </c>
-      <c r="E296" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F296" s="2"/>
+    </row>
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>1</v>
       </c>
@@ -6852,7 +6845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>1</v>
       </c>
@@ -6869,7 +6862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>1</v>
       </c>
@@ -6886,7 +6879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>0</v>
       </c>
@@ -6903,7 +6896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>0</v>
       </c>
@@ -6920,7 +6913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>1</v>
       </c>
@@ -6937,7 +6930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>0</v>
       </c>
@@ -6954,7 +6947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>0</v>
       </c>
@@ -6971,7 +6964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>0</v>
       </c>
@@ -6988,7 +6981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>0</v>
       </c>
@@ -7005,7 +6998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>0</v>
       </c>
@@ -7022,7 +7015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>0</v>
       </c>
@@ -7039,7 +7032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>0</v>
       </c>
@@ -7056,7 +7049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>1</v>
       </c>
@@ -7073,7 +7066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>0</v>
       </c>
@@ -7090,7 +7083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>0</v>
       </c>
@@ -7107,7 +7100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>0</v>
       </c>
@@ -7124,7 +7117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>0</v>
       </c>
@@ -7141,7 +7134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>0</v>
       </c>
@@ -7161,7 +7154,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>0</v>
       </c>
@@ -7181,7 +7174,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>0</v>
       </c>
@@ -7201,7 +7194,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>1</v>
       </c>
@@ -7218,7 +7211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>0</v>
       </c>
@@ -7235,7 +7228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>0</v>
       </c>
@@ -7252,7 +7245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>1</v>
       </c>
@@ -7269,7 +7262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>0</v>
       </c>
@@ -7286,7 +7279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>0</v>
       </c>
@@ -7303,7 +7296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>1</v>
       </c>
@@ -7320,7 +7313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>0</v>
       </c>
@@ -7337,7 +7330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>0</v>
       </c>
@@ -7354,7 +7347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>0</v>
       </c>
@@ -7371,7 +7364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>0</v>
       </c>
@@ -7388,7 +7381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>0</v>
       </c>
@@ -7405,32 +7398,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A330">
-        <v>0</v>
-      </c>
-      <c r="B330" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C330" t="s">
-        <v>419</v>
-      </c>
-      <c r="D330" t="s">
-        <v>62</v>
-      </c>
-      <c r="E330" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F330" s="2"/>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>0</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>272</v>
+        <v>389</v>
       </c>
       <c r="C331" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D331" t="s">
         <v>62</v>
@@ -7439,15 +7433,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>0</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>273</v>
+        <v>390</v>
       </c>
       <c r="C332" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D332" t="s">
         <v>62</v>
@@ -7456,7 +7450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>1</v>
       </c>
@@ -7473,7 +7467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A334">
         <v>0</v>
       </c>
@@ -7490,7 +7484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A335">
         <v>0</v>
       </c>
@@ -7507,7 +7501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A336">
         <v>1</v>
       </c>
@@ -7524,7 +7518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A337">
         <v>1</v>
       </c>
@@ -7541,7 +7535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>0</v>
       </c>
@@ -7558,7 +7552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>0</v>
       </c>
@@ -7575,7 +7569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>0</v>
       </c>
@@ -7592,7 +7586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>0</v>
       </c>
@@ -7612,7 +7606,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>0</v>
       </c>
@@ -7632,7 +7626,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>0</v>
       </c>
@@ -7652,7 +7646,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A344">
         <v>0</v>
       </c>
@@ -7672,7 +7666,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A345">
         <v>0</v>
       </c>
@@ -7692,7 +7686,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>0</v>
       </c>
@@ -7712,7 +7706,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>0</v>
       </c>
@@ -7732,7 +7726,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>0</v>
       </c>
@@ -7752,7 +7746,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>0</v>
       </c>
@@ -7772,32 +7766,35 @@
         <v>43</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>0</v>
       </c>
-      <c r="B350" s="4" t="s">
-        <v>287</v>
+      <c r="B350" s="6" t="s">
+        <v>372</v>
       </c>
       <c r="C350" t="s">
-        <v>419</v>
-      </c>
-      <c r="D350" t="s">
-        <v>62</v>
-      </c>
-      <c r="E350" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F350" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>0</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>288</v>
+        <v>391</v>
       </c>
       <c r="C351" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D351" t="s">
         <v>62</v>
@@ -7806,15 +7803,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>0</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>289</v>
+        <v>392</v>
       </c>
       <c r="C352" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D352" t="s">
         <v>62</v>
@@ -7823,15 +7820,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>0</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>290</v>
+        <v>393</v>
       </c>
       <c r="C353" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D353" t="s">
         <v>62</v>
@@ -7840,15 +7837,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A354">
         <v>0</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>291</v>
+        <v>394</v>
       </c>
       <c r="C354" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D354" t="s">
         <v>62</v>
@@ -7857,15 +7854,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A355">
         <v>0</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>292</v>
+        <v>395</v>
       </c>
       <c r="C355" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D355" t="s">
         <v>62</v>
@@ -7874,15 +7871,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A356">
         <v>0</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>293</v>
+        <v>396</v>
       </c>
       <c r="C356" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D356" t="s">
         <v>62</v>
@@ -7891,15 +7888,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A357">
         <v>0</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>294</v>
+        <v>397</v>
       </c>
       <c r="C357" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D357" t="s">
         <v>62</v>
@@ -7908,15 +7905,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A358">
         <v>0</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>295</v>
+        <v>398</v>
       </c>
       <c r="C358" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D358" t="s">
         <v>62</v>
@@ -7925,7 +7922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A359">
         <v>1</v>
       </c>
@@ -7942,7 +7939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A360">
         <v>1</v>
       </c>
@@ -7959,7 +7956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A361">
         <v>1</v>
       </c>
@@ -7976,7 +7973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A362">
         <v>1</v>
       </c>
@@ -7993,7 +7990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A363">
         <v>1</v>
       </c>
@@ -8010,7 +8007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A364">
         <v>1</v>
       </c>
@@ -8027,7 +8024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A365">
         <v>0</v>
       </c>
@@ -8044,7 +8041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A366">
         <v>1</v>
       </c>
@@ -8061,7 +8058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A367">
         <v>1</v>
       </c>
@@ -8078,7 +8075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A368">
         <v>0</v>
       </c>
@@ -8095,7 +8092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A369">
         <v>0</v>
       </c>
@@ -8112,7 +8109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A370">
         <v>0</v>
       </c>
@@ -8129,7 +8126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A371">
         <v>0</v>
       </c>
@@ -8146,7 +8143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A372">
         <v>0</v>
       </c>
@@ -8163,7 +8160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A373">
         <v>0</v>
       </c>
@@ -8180,7 +8177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A374">
         <v>0</v>
       </c>
@@ -8197,7 +8194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A375">
         <v>0</v>
       </c>
@@ -8214,7 +8211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A376">
         <v>0</v>
       </c>
@@ -8231,7 +8228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A377">
         <v>0</v>
       </c>
@@ -8248,7 +8245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A378">
         <v>0</v>
       </c>
@@ -8268,7 +8265,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A379">
         <v>0</v>
       </c>
@@ -8288,7 +8285,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A380">
         <v>0</v>
       </c>
@@ -8308,7 +8305,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A381">
         <v>0</v>
       </c>
@@ -8328,7 +8325,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A382">
         <v>0</v>
       </c>
@@ -8345,7 +8342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A383">
         <v>0</v>
       </c>
@@ -8362,7 +8359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A384">
         <v>0</v>
       </c>
@@ -8379,7 +8376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A385">
         <v>0</v>
       </c>
@@ -8396,7 +8393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A386">
         <v>0</v>
       </c>
@@ -8413,7 +8410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A387">
         <v>1</v>
       </c>
@@ -8430,7 +8427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A388">
         <v>0</v>
       </c>
@@ -8447,7 +8444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A389">
         <v>1</v>
       </c>
@@ -8464,7 +8461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A390">
         <v>0</v>
       </c>
@@ -8481,7 +8478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A391">
         <v>0</v>
       </c>
@@ -8498,7 +8495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A392">
         <v>0</v>
       </c>
@@ -8515,7 +8512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A393">
         <v>0</v>
       </c>
@@ -8532,7 +8529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A394">
         <v>1</v>
       </c>
@@ -8549,7 +8546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A395">
         <v>1</v>
       </c>
@@ -8566,7 +8563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A396">
         <v>0</v>
       </c>
@@ -8583,7 +8580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A397">
         <v>0</v>
       </c>
@@ -8600,7 +8597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A398">
         <v>0</v>
       </c>
@@ -8617,7 +8614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A399">
         <v>0</v>
       </c>
@@ -8634,7 +8631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A400">
         <v>0</v>
       </c>
@@ -8651,7 +8648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A401">
         <v>0</v>
       </c>
@@ -8668,7 +8665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A402">
         <v>0</v>
       </c>
@@ -8685,7 +8682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A403">
         <v>0</v>
       </c>
@@ -8702,7 +8699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A404">
         <v>0</v>
       </c>
@@ -8719,7 +8716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A405">
         <v>0</v>
       </c>
@@ -8736,7 +8733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A406">
         <v>0</v>
       </c>
@@ -8753,7 +8750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A407">
         <v>1</v>
       </c>
@@ -8770,7 +8767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A408">
         <v>1</v>
       </c>
@@ -8787,7 +8784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A409">
         <v>0</v>
       </c>
@@ -8804,7 +8801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A410">
         <v>1</v>
       </c>
@@ -8821,7 +8818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A411">
         <v>0</v>
       </c>
@@ -8838,7 +8835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A412">
         <v>0</v>
       </c>
@@ -8855,7 +8852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A413">
         <v>1</v>
       </c>
@@ -8872,7 +8869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A414">
         <v>1</v>
       </c>
@@ -8889,7 +8886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A415">
         <v>1</v>
       </c>
@@ -8906,7 +8903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A416">
         <v>1</v>
       </c>
@@ -8923,7 +8920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A417">
         <v>0</v>
       </c>
@@ -8940,7 +8937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A418">
         <v>0</v>
       </c>
@@ -8957,7 +8954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A419">
         <v>0</v>
       </c>
@@ -8974,7 +8971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A420">
         <v>0</v>
       </c>
@@ -8991,7 +8988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A421">
         <v>0</v>
       </c>
@@ -9008,7 +9005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A422">
         <v>0</v>
       </c>
@@ -9025,7 +9022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A423">
         <v>0</v>
       </c>
@@ -9042,7 +9039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A424">
         <v>0</v>
       </c>
@@ -9059,7 +9056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A425">
         <v>0</v>
       </c>
@@ -9076,7 +9073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A426">
         <v>0</v>
       </c>
@@ -9093,7 +9090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A427">
         <v>0</v>
       </c>
@@ -9110,7 +9107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A428">
         <v>1</v>
       </c>
@@ -9127,7 +9124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A429">
         <v>0</v>
       </c>
@@ -9144,7 +9141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A430">
         <v>0</v>
       </c>
@@ -9161,7 +9158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A431">
         <v>0</v>
       </c>
@@ -9181,7 +9178,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A432">
         <v>0</v>
       </c>
@@ -9201,7 +9198,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A433">
         <v>0</v>
       </c>
@@ -9221,526 +9218,539 @@
         <v>43</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A434">
-        <v>1</v>
-      </c>
-      <c r="B434" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B434" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C434" t="s">
+        <v>411</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E434" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F434" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A435">
+        <v>0</v>
+      </c>
+      <c r="B435" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C435" t="s">
+        <v>411</v>
+      </c>
+      <c r="D435" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E435" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F435" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A436">
+        <v>0</v>
+      </c>
+      <c r="B436" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C436" t="s">
+        <v>411</v>
+      </c>
+      <c r="D436" t="s">
+        <v>62</v>
+      </c>
+      <c r="E436" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A437">
+        <v>0</v>
+      </c>
+      <c r="B437" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C437" t="s">
+        <v>411</v>
+      </c>
+      <c r="D437" t="s">
+        <v>62</v>
+      </c>
+      <c r="E437" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A438">
+        <v>0</v>
+      </c>
+      <c r="B438" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C438" t="s">
+        <v>411</v>
+      </c>
+      <c r="D438" t="s">
+        <v>62</v>
+      </c>
+      <c r="E438" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A439">
+        <v>0</v>
+      </c>
+      <c r="B439" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C439" t="s">
+        <v>411</v>
+      </c>
+      <c r="D439" t="s">
+        <v>62</v>
+      </c>
+      <c r="E439" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A440">
+        <v>1</v>
+      </c>
+      <c r="B440" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C440" t="s">
+        <v>418</v>
+      </c>
+      <c r="D440" t="s">
+        <v>62</v>
+      </c>
+      <c r="E440" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A441">
+        <v>1</v>
+      </c>
+      <c r="B441" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C441" t="s">
+        <v>418</v>
+      </c>
+      <c r="D441" t="s">
+        <v>62</v>
+      </c>
+      <c r="E441" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A442">
+        <v>1</v>
+      </c>
+      <c r="B442" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C442" t="s">
+        <v>418</v>
+      </c>
+      <c r="D442" t="s">
+        <v>62</v>
+      </c>
+      <c r="E442" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A443">
+        <v>1</v>
+      </c>
+      <c r="B443" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C443" t="s">
+        <v>418</v>
+      </c>
+      <c r="D443" t="s">
+        <v>62</v>
+      </c>
+      <c r="E443" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A444">
+        <v>1</v>
+      </c>
+      <c r="B444" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C444" t="s">
+        <v>418</v>
+      </c>
+      <c r="D444" t="s">
+        <v>62</v>
+      </c>
+      <c r="E444" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A445">
+        <v>0</v>
+      </c>
+      <c r="B445" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C445" t="s">
+        <v>417</v>
+      </c>
+      <c r="D445" t="s">
+        <v>62</v>
+      </c>
+      <c r="E445" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A446">
+        <v>1</v>
+      </c>
+      <c r="B446" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C446" t="s">
+        <v>417</v>
+      </c>
+      <c r="D446" t="s">
+        <v>62</v>
+      </c>
+      <c r="E446" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A447">
+        <v>0</v>
+      </c>
+      <c r="B447" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C447" t="s">
+        <v>417</v>
+      </c>
+      <c r="D447" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E447" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F447" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A448">
+        <v>0</v>
+      </c>
+      <c r="B448" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C448" t="s">
+        <v>417</v>
+      </c>
+      <c r="D448" t="s">
+        <v>62</v>
+      </c>
+      <c r="E448" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A449">
+        <v>0</v>
+      </c>
+      <c r="B449" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C434" t="s">
-        <v>410</v>
-      </c>
-      <c r="D434" t="s">
-        <v>62</v>
-      </c>
-      <c r="E434" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A435">
-        <v>0</v>
-      </c>
-      <c r="B435" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="C435" t="s">
-        <v>410</v>
-      </c>
-      <c r="D435" t="s">
-        <v>62</v>
-      </c>
-      <c r="E435" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A436">
-        <v>0</v>
-      </c>
-      <c r="B436" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C436" t="s">
-        <v>410</v>
-      </c>
-      <c r="D436" t="s">
-        <v>62</v>
-      </c>
-      <c r="E436" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A437">
-        <v>0</v>
-      </c>
-      <c r="B437" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C437" t="s">
-        <v>410</v>
-      </c>
-      <c r="D437" t="s">
-        <v>62</v>
-      </c>
-      <c r="E437" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A438">
-        <v>0</v>
-      </c>
-      <c r="B438" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="C438" t="s">
-        <v>410</v>
-      </c>
-      <c r="D438" t="s">
-        <v>62</v>
-      </c>
-      <c r="E438" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A439">
-        <v>1</v>
-      </c>
-      <c r="B439" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C439" t="s">
-        <v>410</v>
-      </c>
-      <c r="D439" t="s">
-        <v>62</v>
-      </c>
-      <c r="E439" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A440">
-        <v>0</v>
-      </c>
-      <c r="B440" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="C440" t="s">
-        <v>410</v>
-      </c>
-      <c r="D440" t="s">
-        <v>62</v>
-      </c>
-      <c r="E440" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A441">
-        <v>0</v>
-      </c>
-      <c r="B441" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="C441" t="s">
-        <v>410</v>
-      </c>
-      <c r="D441" t="s">
-        <v>62</v>
-      </c>
-      <c r="E441" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A442">
-        <v>0</v>
-      </c>
-      <c r="B442" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="C442" t="s">
-        <v>410</v>
-      </c>
-      <c r="D442" t="s">
-        <v>62</v>
-      </c>
-      <c r="E442" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A443">
-        <v>0</v>
-      </c>
-      <c r="B443" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="C443" t="s">
-        <v>410</v>
-      </c>
-      <c r="D443" t="s">
-        <v>62</v>
-      </c>
-      <c r="E443" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A444">
-        <v>0</v>
-      </c>
-      <c r="B444" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C444" t="s">
-        <v>410</v>
-      </c>
-      <c r="D444" t="s">
-        <v>62</v>
-      </c>
-      <c r="E444" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A445">
-        <v>0</v>
-      </c>
-      <c r="B445" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C445" t="s">
-        <v>410</v>
-      </c>
-      <c r="D445" t="s">
-        <v>62</v>
-      </c>
-      <c r="E445" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A446">
-        <v>0</v>
-      </c>
-      <c r="B446" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="C446" t="s">
-        <v>410</v>
-      </c>
-      <c r="D446" t="s">
-        <v>62</v>
-      </c>
-      <c r="E446" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A447">
-        <v>0</v>
-      </c>
-      <c r="B447" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="C447" t="s">
-        <v>410</v>
-      </c>
-      <c r="D447" t="s">
-        <v>62</v>
-      </c>
-      <c r="E447" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A448">
-        <v>0</v>
-      </c>
-      <c r="B448" s="4" t="s">
+      <c r="C449" t="s">
+        <v>417</v>
+      </c>
+      <c r="D449" t="s">
+        <v>62</v>
+      </c>
+      <c r="E449" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A450">
+        <v>0</v>
+      </c>
+      <c r="B450" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C450" t="s">
+        <v>417</v>
+      </c>
+      <c r="D450" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E450" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F450" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A451">
+        <v>0</v>
+      </c>
+      <c r="B451" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C451" t="s">
+        <v>417</v>
+      </c>
+      <c r="D451" t="s">
+        <v>62</v>
+      </c>
+      <c r="E451" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A452">
+        <v>0</v>
+      </c>
+      <c r="B452" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C452" t="s">
+        <v>417</v>
+      </c>
+      <c r="D452" t="s">
+        <v>62</v>
+      </c>
+      <c r="E452" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A453">
+        <v>0</v>
+      </c>
+      <c r="B453" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C453" t="s">
+        <v>417</v>
+      </c>
+      <c r="D453" t="s">
+        <v>62</v>
+      </c>
+      <c r="E453" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A454">
+        <v>0</v>
+      </c>
+      <c r="B454" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C454" t="s">
+        <v>417</v>
+      </c>
+      <c r="D454" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E454" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F454" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A455">
+        <v>0</v>
+      </c>
+      <c r="B455" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C455" t="s">
+        <v>417</v>
+      </c>
+      <c r="D455" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E455" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F455" s="3"/>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A456">
+        <v>0</v>
+      </c>
+      <c r="B456" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C456" t="s">
+        <v>417</v>
+      </c>
+      <c r="D456" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E456" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F456" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A457">
+        <v>0</v>
+      </c>
+      <c r="B457" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C457" t="s">
+        <v>417</v>
+      </c>
+      <c r="D457" t="s">
+        <v>62</v>
+      </c>
+      <c r="E457" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A458">
+        <v>0</v>
+      </c>
+      <c r="B458" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C458" t="s">
+        <v>417</v>
+      </c>
+      <c r="D458" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E458" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F458" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A459">
+        <v>0</v>
+      </c>
+      <c r="B459" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C459" t="s">
+        <v>417</v>
+      </c>
+      <c r="D459" t="s">
+        <v>62</v>
+      </c>
+      <c r="E459" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A460">
+        <v>0</v>
+      </c>
+      <c r="B460" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C460" t="s">
+        <v>417</v>
+      </c>
+      <c r="D460" t="s">
+        <v>62</v>
+      </c>
+      <c r="E460" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A461">
+        <v>0</v>
+      </c>
+      <c r="B461" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C461" t="s">
+        <v>417</v>
+      </c>
+      <c r="D461" t="s">
+        <v>62</v>
+      </c>
+      <c r="E461" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A462">
+        <v>0</v>
+      </c>
+      <c r="B462" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C448" t="s">
-        <v>410</v>
-      </c>
-      <c r="D448" t="s">
-        <v>62</v>
-      </c>
-      <c r="E448" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A449">
-        <v>0</v>
-      </c>
-      <c r="B449" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="C449" t="s">
-        <v>410</v>
-      </c>
-      <c r="D449" t="s">
-        <v>62</v>
-      </c>
-      <c r="E449" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A450">
-        <v>1</v>
-      </c>
-      <c r="B450" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="C450" t="s">
-        <v>410</v>
-      </c>
-      <c r="D450" t="s">
-        <v>62</v>
-      </c>
-      <c r="E450" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A451">
-        <v>0</v>
-      </c>
-      <c r="B451" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="C451" t="s">
-        <v>410</v>
-      </c>
-      <c r="D451" t="s">
-        <v>62</v>
-      </c>
-      <c r="E451" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A452">
-        <v>0</v>
-      </c>
-      <c r="B452" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="C452" t="s">
-        <v>410</v>
-      </c>
-      <c r="D452" t="s">
-        <v>62</v>
-      </c>
-      <c r="E452" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A453">
-        <v>1</v>
-      </c>
-      <c r="B453" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="C453" t="s">
-        <v>410</v>
-      </c>
-      <c r="D453" t="s">
-        <v>62</v>
-      </c>
-      <c r="E453" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A454">
-        <v>1</v>
-      </c>
-      <c r="B454" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C454" t="s">
-        <v>410</v>
-      </c>
-      <c r="D454" t="s">
-        <v>62</v>
-      </c>
-      <c r="E454" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A455">
-        <v>1</v>
-      </c>
-      <c r="B455" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="C455" t="s">
-        <v>410</v>
-      </c>
-      <c r="D455" t="s">
-        <v>62</v>
-      </c>
-      <c r="E455" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A456">
-        <v>1</v>
-      </c>
-      <c r="B456" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="C456" t="s">
-        <v>410</v>
-      </c>
-      <c r="D456" t="s">
-        <v>62</v>
-      </c>
-      <c r="E456" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A457">
-        <v>0</v>
-      </c>
-      <c r="B457" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C457" t="s">
-        <v>410</v>
-      </c>
-      <c r="D457" t="s">
-        <v>62</v>
-      </c>
-      <c r="E457" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A458">
-        <v>0</v>
-      </c>
-      <c r="B458" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="C458" t="s">
-        <v>410</v>
-      </c>
-      <c r="D458" t="s">
-        <v>62</v>
-      </c>
-      <c r="E458" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A459">
-        <v>0</v>
-      </c>
-      <c r="B459" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="C459" t="s">
-        <v>410</v>
-      </c>
-      <c r="D459" t="s">
-        <v>62</v>
-      </c>
-      <c r="E459" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A460">
-        <v>0</v>
-      </c>
-      <c r="B460" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="C460" t="s">
-        <v>410</v>
-      </c>
-      <c r="D460" t="s">
-        <v>62</v>
-      </c>
-      <c r="E460" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A461">
-        <v>0</v>
-      </c>
-      <c r="B461" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="C461" t="s">
-        <v>410</v>
-      </c>
-      <c r="D461" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E461" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F461" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A462">
-        <v>0</v>
-      </c>
-      <c r="B462" s="6" t="s">
-        <v>371</v>
-      </c>
       <c r="C462" t="s">
-        <v>410</v>
-      </c>
-      <c r="D462" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E462" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F462" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D462" t="s">
+        <v>62</v>
+      </c>
+      <c r="E462" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A463">
         <v>0</v>
       </c>
-      <c r="B463" s="6" t="s">
-        <v>372</v>
+      <c r="B463" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="C463" t="s">
-        <v>410</v>
-      </c>
-      <c r="D463" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E463" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F463" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D463" t="s">
+        <v>62</v>
+      </c>
+      <c r="E463" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A464">
         <v>1</v>
       </c>
@@ -9757,7 +9767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A465">
         <v>0</v>
       </c>
@@ -9774,7 +9784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A466">
         <v>0</v>
       </c>
@@ -9791,7 +9801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A467">
         <v>0</v>
       </c>
@@ -9808,7 +9818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A468">
         <v>1</v>
       </c>
@@ -9825,7 +9835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A469">
         <v>1</v>
       </c>
@@ -9842,7 +9852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A470">
         <v>1</v>
       </c>
@@ -9859,7 +9869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A471">
         <v>0</v>
       </c>
@@ -9876,7 +9886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A472">
         <v>0</v>
       </c>
@@ -9893,7 +9903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A473">
         <v>0</v>
       </c>
@@ -9910,7 +9920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A474">
         <v>0</v>
       </c>
@@ -9927,7 +9937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A475">
         <v>0</v>
       </c>
@@ -9944,7 +9954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A476">
         <v>0</v>
       </c>
@@ -9961,7 +9971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A477">
         <v>0</v>
       </c>
@@ -9978,7 +9988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A478">
         <v>0</v>
       </c>
@@ -9995,7 +10005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A479">
         <v>0</v>
       </c>
@@ -10012,7 +10022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A480">
         <v>0</v>
       </c>
@@ -10029,7 +10039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A481">
         <v>0</v>
       </c>
@@ -10046,7 +10056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A482">
         <v>0</v>
       </c>
@@ -10063,7 +10073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A483">
         <v>0</v>
       </c>
@@ -10080,7 +10090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A484">
         <v>0</v>
       </c>
@@ -10100,7 +10110,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A485">
         <v>0</v>
       </c>
@@ -10120,15 +10130,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A486">
         <v>0</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>389</v>
+        <v>232</v>
       </c>
       <c r="C486" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D486" t="s">
         <v>62</v>
@@ -10137,15 +10147,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A487">
         <v>0</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>390</v>
+        <v>112</v>
       </c>
       <c r="C487" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D487" t="s">
         <v>62</v>
@@ -10154,15 +10164,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A488">
         <v>0</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>391</v>
+        <v>180</v>
       </c>
       <c r="C488" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D488" t="s">
         <v>62</v>
@@ -10171,32 +10181,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A489">
         <v>0</v>
       </c>
-      <c r="B489" s="4" t="s">
-        <v>392</v>
+      <c r="B489" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="C489" t="s">
-        <v>411</v>
-      </c>
-      <c r="D489" t="s">
-        <v>62</v>
-      </c>
-      <c r="E489" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="D489" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E489" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F489" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A490">
         <v>0</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>393</v>
+        <v>233</v>
       </c>
       <c r="C490" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D490" t="s">
         <v>62</v>
@@ -10205,15 +10218,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A491">
         <v>0</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>394</v>
+        <v>287</v>
       </c>
       <c r="C491" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D491" t="s">
         <v>62</v>
@@ -10222,15 +10235,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A492">
         <v>0</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>395</v>
+        <v>273</v>
       </c>
       <c r="C492" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D492" t="s">
         <v>62</v>
@@ -10239,15 +10252,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A493">
         <v>0</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>396</v>
+        <v>288</v>
       </c>
       <c r="C493" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D493" t="s">
         <v>62</v>
@@ -10256,15 +10269,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A494">
         <v>0</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>397</v>
+        <v>289</v>
       </c>
       <c r="C494" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D494" t="s">
         <v>62</v>
@@ -10273,15 +10286,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A495">
         <v>0</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>398</v>
+        <v>290</v>
       </c>
       <c r="C495" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D495" t="s">
         <v>62</v>
@@ -10290,15 +10303,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A496">
         <v>0</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>399</v>
+        <v>272</v>
       </c>
       <c r="C496" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D496" t="s">
         <v>62</v>
@@ -10307,15 +10320,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A497">
         <v>0</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>400</v>
+        <v>271</v>
       </c>
       <c r="C497" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D497" t="s">
         <v>62</v>
@@ -10324,15 +10337,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A498">
         <v>0</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>401</v>
+        <v>291</v>
       </c>
       <c r="C498" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D498" t="s">
         <v>62</v>
@@ -10341,15 +10354,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A499">
         <v>0</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>402</v>
+        <v>292</v>
       </c>
       <c r="C499" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D499" t="s">
         <v>62</v>
@@ -10358,67 +10371,58 @@
         <v>8</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A500">
         <v>0</v>
       </c>
-      <c r="B500" s="6" t="s">
-        <v>370</v>
+      <c r="B500" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="C500" t="s">
-        <v>411</v>
-      </c>
-      <c r="D500" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E500" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F500" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+      <c r="D500" t="s">
+        <v>62</v>
+      </c>
+      <c r="E500" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A501">
         <v>0</v>
       </c>
-      <c r="B501" s="6" t="s">
-        <v>371</v>
+      <c r="B501" s="4" t="s">
+        <v>294</v>
       </c>
       <c r="C501" t="s">
-        <v>411</v>
-      </c>
-      <c r="D501" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E501" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F501" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+      <c r="D501" t="s">
+        <v>62</v>
+      </c>
+      <c r="E501" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A502">
         <v>0</v>
       </c>
-      <c r="B502" s="6" t="s">
-        <v>372</v>
+      <c r="B502" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="C502" t="s">
-        <v>411</v>
-      </c>
-      <c r="D502" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E502" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F502" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+      <c r="D502" t="s">
+        <v>62</v>
+      </c>
+      <c r="E502" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A503">
         <v>0</v>
       </c>
@@ -10435,7 +10439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A504">
         <v>0</v>
       </c>
@@ -10452,7 +10456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A505">
         <v>0</v>
       </c>
@@ -10469,7 +10473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A506">
         <v>0</v>
       </c>
@@ -10486,7 +10490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A507">
         <v>0</v>
       </c>
@@ -10503,7 +10507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A508">
         <v>0</v>
       </c>
@@ -10520,7 +10524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A509">
         <v>0</v>
       </c>
@@ -10537,7 +10541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A510">
         <v>0</v>
       </c>
@@ -10554,7 +10558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A511">
         <v>0</v>
       </c>
@@ -10571,7 +10575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A512">
         <v>0</v>
       </c>
@@ -10588,7 +10592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A513">
         <v>0</v>
       </c>
@@ -10605,7 +10609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A514">
         <v>0</v>
       </c>
@@ -10622,7 +10626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A515">
         <v>0</v>
       </c>
@@ -10639,7 +10643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A516">
         <v>0</v>
       </c>
@@ -10656,7 +10660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A517">
         <v>0</v>
       </c>
@@ -10673,7 +10677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A518">
         <v>0</v>
       </c>
@@ -10690,7 +10694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A519">
         <v>0</v>
       </c>
@@ -10707,7 +10711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A520">
         <v>0</v>
       </c>
@@ -10724,7 +10728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A521">
         <v>0</v>
       </c>
@@ -10741,7 +10745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A522">
         <v>0</v>
       </c>
@@ -10758,7 +10762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A523">
         <v>0</v>
       </c>
@@ -10775,7 +10779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A524">
         <v>0</v>
       </c>
@@ -10795,7 +10799,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A525">
         <v>0</v>
       </c>
@@ -10816,6 +10820,16 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F525" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Mouse"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A53:F502">
+      <sortCondition ref="C1:C525"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
